--- a/Tribes.xlsx
+++ b/Tribes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Wood</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Upgraded Farm from level 18 to level 20</t>
   </si>
 </sst>
 </file>
@@ -198,42 +207,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625</c:v>
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$6</c:f>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.1</c:v>
+                  <c:v>24.594999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.594999999999999</c:v>
+                  <c:v>27.812999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.812999999999999</c:v>
+                  <c:v>31.890999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.890999999999998</c:v>
+                  <c:v>25.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.957000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,42 +283,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625</c:v>
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>26.091999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.091999999999999</c:v>
+                  <c:v>29.314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.314</c:v>
+                  <c:v>33.357999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.357999999999997</c:v>
+                  <c:v>29.617000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,42 +359,48 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$6</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>h:mm\ AM/PM</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625</c:v>
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$6</c:f>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>28.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.28</c:v>
+                  <c:v>31.303000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.303000000000001</c:v>
+                  <c:v>35.112000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.112000000000002</c:v>
+                  <c:v>28.881</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.425999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,16 +1163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1430,15 +1457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1455,7 +1485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1469,7 +1499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -1487,7 +1517,7 @@
         <v>7.0999999999999943</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -1504,8 +1534,15 @@
         <f>SUM(B4:D4) - SUM(B3:D3)</f>
         <v>8.8670000000000044</v>
       </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f>156/3</f>
+        <v>52</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -1522,8 +1559,15 @@
         <f>SUM(B5:D5) - SUM(B4:D4)</f>
         <v>9.4629999999999939</v>
       </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f>156 - SUM(B8:D8)</f>
+        <v>64.156999999999996</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.625</v>
       </c>
@@ -1541,22 +1585,48 @@
         <v>11.930999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="B7">
-        <v>33.451999999999998</v>
+        <v>25.37</v>
       </c>
       <c r="C7">
-        <v>34.667000000000002</v>
+        <v>29.617000000000001</v>
       </c>
       <c r="D7">
-        <v>36.499000000000002</v>
+        <v>28.881</v>
       </c>
       <c r="E7">
         <f>SUM(B7:D7) - SUM(B6:D6)</f>
-        <v>4.257000000000005</v>
+        <v>-16.492999999999995</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B8">
+        <v>27.957000000000001</v>
+      </c>
+      <c r="C8">
+        <v>32.46</v>
+      </c>
+      <c r="D8">
+        <v>31.425999999999998</v>
+      </c>
+      <c r="E8">
+        <f>SUM(B8:D8) - SUM(B7:D7)</f>
+        <v>7.9750000000000085</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Tribes.xlsx
+++ b/Tribes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Wood</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Upgraded Farm from level 18 to level 20</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
@@ -1460,11 +1463,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1516,6 +1520,17 @@
         <f>SUM(B3:D3) - SUM(B2:D2)</f>
         <v>7.0999999999999943</v>
       </c>
+      <c r="F3">
+        <f>E3/3.828</f>
+        <v>1.8547544409613361</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B9:D9)/3</f>
+        <v>34.062666666666672</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1534,6 +1549,10 @@
         <f>SUM(B4:D4) - SUM(B3:D3)</f>
         <v>8.8670000000000044</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F9" si="0">E4/3.828</f>
+        <v>2.3163531870428433</v>
+      </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
@@ -1559,12 +1578,16 @@
         <f>SUM(B5:D5) - SUM(B4:D4)</f>
         <v>9.4629999999999939</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.4720480668756517</v>
+      </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5">
-        <f>156 - SUM(B8:D8)</f>
-        <v>64.156999999999996</v>
+        <f>156 - SUM(B9:D9)</f>
+        <v>53.811999999999983</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,6 +1607,10 @@
         <f>SUM(B6:D6) - SUM(B5:D5)</f>
         <v>11.930999999999997</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.1167711598746077</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1602,6 +1629,10 @@
         <f>SUM(B7:D7) - SUM(B6:D6)</f>
         <v>-16.492999999999995</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-4.3085161964472301</v>
+      </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
@@ -1623,10 +1654,31 @@
         <f>SUM(B8:D8) - SUM(B7:D7)</f>
         <v>7.9750000000000085</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333357</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.75</v>
+      </c>
+      <c r="B9">
+        <v>31.96</v>
+      </c>
+      <c r="C9">
+        <v>35.5</v>
+      </c>
+      <c r="D9">
+        <v>34.728000000000002</v>
+      </c>
+      <c r="E9">
+        <f>SUM(B9:D9) - SUM(B8:D8)</f>
+        <v>10.345000000000013</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.7024555903866285</v>
       </c>
     </row>
   </sheetData>
